--- a/biology/Botanique/Phanérophyte/Phanérophyte.xlsx
+++ b/biology/Botanique/Phanérophyte/Phanérophyte.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Phan%C3%A9rophyte</t>
+          <t>Phanérophyte</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Phanérophytes (du grec ancien φανεσός, phanerós : apparent ; φυτόν phuton : plante) font probablement partie des premières plantes vivaces apparues sur Terre.
-Dans le système de classification des plantes du botaniste danois Christen Christiansen Raunkiær, ces plantes possèdent des bourgeons dormants aériens à plus de 50 cm de la surface du sol[1]. Ces plantes affrontent l'hiver en exposant à ses rigueurs des tiges porteuses de bourgeons (ex. : le pin, le chêne, l'abricotier, le noisetier).
+Dans le système de classification des plantes du botaniste danois Christen Christiansen Raunkiær, ces plantes possèdent des bourgeons dormants aériens à plus de 50 cm de la surface du sol. Ces plantes affrontent l'hiver en exposant à ses rigueurs des tiges porteuses de bourgeons (ex. : le pin, le chêne, l'abricotier, le noisetier).
 Les phanérophytes ne subissent pas de modifications morphologiques mais des modifications qualitatives et écophysiologiques[pas clair].
 </t>
         </is>
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Phan%C3%A9rophyte</t>
+          <t>Phanérophyte</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,14 +525,16 @@
           <t>Classement</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Deux manières de classer les phanérophytes coexistent[2] : 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Deux manières de classer les phanérophytes coexistent : 
 Raunkiær distingue dans un premier temps ces végétaux en fonction de la taille de leur tiges : 
 les macrophanérophytes : leurs tiges ligneuses dépassent 8 m de hauteur ;
 les mésophanérophytes : leurs tiges ligneuses sont comprises entre 2 et 8 m de hauteur ;
 les microphanérophytes : leurs tiges ligneuses sont comprises entre 0,5 et 2 m de hauteur ;
-les nanophanérophytes : leurs tiges ligneuses ne dépassent pas 0,5 m de hauteur[3].
+les nanophanérophytes : leurs tiges ligneuses ne dépassent pas 0,5 m de hauteur.
 Mais les phanérophytes peuvent également être classées en fonction de leurs caractéristiques morphologiques : 
 bourgeons, écailleux ou non ;
 feuilles, persistantes ou caduques.</t>
